--- a/gui/IDP_MapTool_Flask/pandapower2urbs/dataset/_transmission/test.xlsx
+++ b/gui/IDP_MapTool_Flask/pandapower2urbs/dataset/_transmission/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="193">
   <si>
     <t>name</t>
   </si>
@@ -495,18 +495,18 @@
     <t>0.63 MVA 10/0.4 kV</t>
   </si>
   <si>
+    <t>sn_hv_mva</t>
+  </si>
+  <si>
+    <t>sn_mv_mva</t>
+  </si>
+  <si>
+    <t>sn_lv_mva</t>
+  </si>
+  <si>
     <t>vn_mv_kv</t>
   </si>
   <si>
-    <t>sn_hv_mva</t>
-  </si>
-  <si>
-    <t>sn_mv_mva</t>
-  </si>
-  <si>
-    <t>sn_lv_mva</t>
-  </si>
-  <si>
     <t>vk_hv_percent</t>
   </si>
   <si>
@@ -531,10 +531,16 @@
     <t>shift_lv_degree</t>
   </si>
   <si>
+    <t>vector_group</t>
+  </si>
+  <si>
     <t>63/25/38 MVA 110/20/10 kV</t>
   </si>
   <si>
     <t>63/25/38 MVA 110/10/10 kV</t>
+  </si>
+  <si>
+    <t>YN0yn0yn0</t>
   </si>
   <si>
     <t>element</t>
@@ -1129,30 +1135,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>160</v>
@@ -1185,42 +1191,45 @@
         <v>167</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
         <v>110</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>63</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
       </c>
       <c r="H2">
         <v>10.4</v>
@@ -1253,42 +1262,45 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" t="s">
         <v>75</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>-10</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>10</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
         <v>110</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="E3">
-        <v>63</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>38</v>
       </c>
       <c r="H3">
         <v>10.4</v>
@@ -1321,18 +1333,21 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
+        <v>171</v>
+      </c>
+      <c r="S3" t="s">
         <v>75</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>-10</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.2</v>
       </c>
     </row>
@@ -1351,13 +1366,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1371,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1385,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1399,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1413,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1427,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1441,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1455,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1463,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1477,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1491,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1505,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1519,13 +1534,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1533,13 +1548,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1547,13 +1562,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1561,13 +1576,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1575,13 +1590,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1589,13 +1604,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1603,13 +1618,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1617,13 +1632,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1631,13 +1646,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1645,13 +1660,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1659,13 +1674,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1673,13 +1688,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1687,13 +1702,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1701,13 +1716,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1715,13 +1730,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1729,13 +1744,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1743,13 +1758,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1757,13 +1772,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1771,13 +1786,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1785,13 +1800,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1799,13 +1814,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1813,13 +1828,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1827,13 +1842,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1841,13 +1856,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1855,13 +1870,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1869,13 +1884,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1883,13 +1898,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1897,13 +1912,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1911,13 +1926,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1925,13 +1940,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1939,13 +1954,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1953,13 +1968,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1967,13 +1982,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1981,13 +1996,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1995,13 +2010,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2009,13 +2024,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2023,13 +2038,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2037,13 +2052,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2051,13 +2066,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2065,13 +2080,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2079,13 +2094,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2093,13 +2108,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2107,13 +2122,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2121,13 +2136,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2135,13 +2150,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2149,13 +2164,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2163,13 +2178,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2177,13 +2192,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2191,13 +2206,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
         <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2205,13 +2220,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2219,13 +2234,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2233,13 +2248,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2247,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2261,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2275,13 +2290,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2289,13 +2304,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2303,13 +2318,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
         <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2317,13 +2332,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2331,13 +2346,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2345,13 +2360,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
         <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2359,13 +2374,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
         <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2373,13 +2388,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2387,13 +2402,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
         <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2401,13 +2416,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2415,13 +2430,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2429,13 +2444,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2443,13 +2458,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2457,13 +2472,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
         <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2471,13 +2486,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
         <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2485,13 +2500,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
         <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2509,22 +2524,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -2535,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>

--- a/gui/IDP_MapTool_Flask/pandapower2urbs/dataset/_transmission/test.xlsx
+++ b/gui/IDP_MapTool_Flask/pandapower2urbs/dataset/_transmission/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="239">
   <si>
     <t>name</t>
   </si>
@@ -54,16 +54,52 @@
     <t>Trafostation_OS</t>
   </si>
   <si>
-    <t>Connection Nodebus 138</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 143</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 137</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 142</t>
+    <t>Connection Nodebus 29</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 41</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 36</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 34</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 24</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 38</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 46</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 43</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 23</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 28</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 33</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 35</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 37</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 40</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 42</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 45</t>
   </si>
   <si>
     <t>n</t>
@@ -105,10 +141,52 @@
     <t>controllable</t>
   </si>
   <si>
-    <t>Load 137 household 1</t>
-  </si>
-  <si>
-    <t>Load 142 household 1</t>
+    <t>Load 23 household 1</t>
+  </si>
+  <si>
+    <t>Load 23 household 2</t>
+  </si>
+  <si>
+    <t>Load 28 household 1</t>
+  </si>
+  <si>
+    <t>Load 33 household 1</t>
+  </si>
+  <si>
+    <t>Load 35 household 1</t>
+  </si>
+  <si>
+    <t>Load 35 household 2</t>
+  </si>
+  <si>
+    <t>Load 35 household 3</t>
+  </si>
+  <si>
+    <t>Load 35 household 4</t>
+  </si>
+  <si>
+    <t>Load 37 household 1</t>
+  </si>
+  <si>
+    <t>Load 37 household 2</t>
+  </si>
+  <si>
+    <t>Load 40 household 1</t>
+  </si>
+  <si>
+    <t>Load 40 household 2</t>
+  </si>
+  <si>
+    <t>Load 40 household 3</t>
+  </si>
+  <si>
+    <t>Load 40 household 4</t>
+  </si>
+  <si>
+    <t>Load 42 household 1</t>
+  </si>
+  <si>
+    <t>Load 45 household 1</t>
   </si>
   <si>
     <t>wye</t>
@@ -177,16 +255,52 @@
     <t>parallel</t>
   </si>
   <si>
-    <t>Line to 137</t>
-  </si>
-  <si>
-    <t>Line to 142</t>
-  </si>
-  <si>
-    <t>Line to 143</t>
-  </si>
-  <si>
-    <t>Line to 138</t>
+    <t>Line to 28</t>
+  </si>
+  <si>
+    <t>Line to 40</t>
+  </si>
+  <si>
+    <t>Line to 42</t>
+  </si>
+  <si>
+    <t>Line to 45</t>
+  </si>
+  <si>
+    <t>Line to 43</t>
+  </si>
+  <si>
+    <t>Line to 46</t>
+  </si>
+  <si>
+    <t>Line to 41</t>
+  </si>
+  <si>
+    <t>Line to 29</t>
+  </si>
+  <si>
+    <t>Line to 37</t>
+  </si>
+  <si>
+    <t>Line to 38</t>
+  </si>
+  <si>
+    <t>Line to 23</t>
+  </si>
+  <si>
+    <t>Line to 33</t>
+  </si>
+  <si>
+    <t>Line to 35</t>
+  </si>
+  <si>
+    <t>Line to 24</t>
+  </si>
+  <si>
+    <t>Line to 34</t>
+  </si>
+  <si>
+    <t>Line to 36</t>
   </si>
   <si>
     <t>NYY 4x16 SE</t>
@@ -265,6 +379,30 @@
   </si>
   <si>
     <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>y5</t>
   </si>
   <si>
     <t>x</t>
@@ -961,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1001,7 +1139,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1024,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1047,7 +1185,7 @@
         <v>0.4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1070,7 +1208,7 @@
         <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1093,7 +1231,7 @@
         <v>0.4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1116,7 +1254,7 @@
         <v>0.4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1125,6 +1263,282 @@
         <v>0.95</v>
       </c>
       <c r="H7">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.95</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.95</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.95</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.95</v>
+      </c>
+      <c r="H11">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.95</v>
+      </c>
+      <c r="H12">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.95</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0.4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.95</v>
+      </c>
+      <c r="H14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.95</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.95</v>
+      </c>
+      <c r="H16">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.95</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.95</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.95</v>
+      </c>
+      <c r="H19">
         <v>1.05</v>
       </c>
     </row>
@@ -1143,75 +1557,75 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <v>63</v>
@@ -1262,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1282,7 +1696,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -1333,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1366,13 +1780,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1380,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1394,13 +1808,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1408,13 +1822,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1422,13 +1836,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1436,13 +1850,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1450,13 +1864,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1464,13 +1878,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1478,13 +1892,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1492,13 +1906,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1506,13 +1920,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1520,13 +1934,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1534,13 +1948,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1548,13 +1962,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1562,13 +1976,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1576,13 +1990,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1590,13 +2004,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1604,13 +2018,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1618,13 +2032,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1632,13 +2046,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1646,13 +2060,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1660,13 +2074,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1674,13 +2088,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1688,13 +2102,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1702,13 +2116,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1716,13 +2130,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1730,13 +2144,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1744,13 +2158,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1758,13 +2172,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1772,13 +2186,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1786,13 +2200,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1800,13 +2214,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1814,13 +2228,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1828,13 +2242,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1842,13 +2256,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1856,13 +2270,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1870,13 +2284,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1884,13 +2298,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1898,13 +2312,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1912,13 +2326,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1926,13 +2340,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1940,13 +2354,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1954,13 +2368,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1968,13 +2382,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1982,13 +2396,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1996,13 +2410,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2010,13 +2424,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2024,13 +2438,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2038,13 +2452,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2052,13 +2466,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2066,13 +2480,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2080,13 +2494,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2094,13 +2508,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2108,13 +2522,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2122,13 +2536,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2136,13 +2550,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2150,13 +2564,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2164,13 +2578,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2178,13 +2592,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2192,13 +2606,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2206,13 +2620,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2220,13 +2634,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2234,13 +2648,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2248,13 +2662,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2262,13 +2676,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2276,13 +2690,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2290,13 +2704,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2304,13 +2718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2318,13 +2732,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2332,13 +2746,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2346,13 +2760,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2360,13 +2774,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2374,13 +2788,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2388,13 +2802,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2402,13 +2816,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2416,13 +2830,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2430,13 +2844,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2444,13 +2858,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2458,13 +2872,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2472,13 +2886,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2486,13 +2900,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2500,13 +2914,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2524,25 +2938,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2550,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -2575,7 +2989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2586,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -2613,19 +3027,19 @@
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2633,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2657,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="M2">
         <v>0.03</v>
@@ -2671,10 +3085,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2695,12 +3109,544 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="M3">
         <v>0.03</v>
       </c>
       <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>0.03</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5">
+        <v>0.03</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6">
+        <v>0.03</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7">
+        <v>0.03</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8">
+        <v>0.03</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>0.03</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>0.03</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11">
+        <v>0.03</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12">
+        <v>0.03</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13">
+        <v>0.03</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14">
+        <v>0.03</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15">
+        <v>0.03</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16">
+        <v>0.03</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17">
+        <v>0.03</v>
+      </c>
+      <c r="P17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2722,52 +3668,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2775,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2803,7 +3749,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2814,37 +3760,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -2858,19 +3804,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>0.01213264062925</v>
+        <v>0.011932863530525</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -2902,19 +3848,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>0.011194524496771</v>
+        <v>0.012956974654474</v>
       </c>
       <c r="G3">
         <v>1.15</v>
@@ -2946,19 +3892,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>0.03095362555639</v>
+        <v>0.016204443604671</v>
       </c>
       <c r="G4">
         <v>1.15</v>
@@ -2990,19 +3936,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.013694547567895</v>
       </c>
       <c r="G5">
         <v>1.15</v>
@@ -3026,6 +3972,534 @@
         <v>1</v>
       </c>
       <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0.003322827910104</v>
+      </c>
+      <c r="G6">
+        <v>1.15</v>
+      </c>
+      <c r="H6">
+        <v>0.09</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.103</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0.074169598766908</v>
+      </c>
+      <c r="G7">
+        <v>1.15</v>
+      </c>
+      <c r="H7">
+        <v>0.09</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.103</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0.003993563378503</v>
+      </c>
+      <c r="G8">
+        <v>1.15</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.103</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.15</v>
+      </c>
+      <c r="H9">
+        <v>0.09</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.103</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0.014737904823221</v>
+      </c>
+      <c r="G10">
+        <v>1.15</v>
+      </c>
+      <c r="H10">
+        <v>0.09</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.103</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0.066528552841084</v>
+      </c>
+      <c r="G11">
+        <v>1.15</v>
+      </c>
+      <c r="H11">
+        <v>0.09</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.103</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0.00743236507635</v>
+      </c>
+      <c r="G12">
+        <v>1.15</v>
+      </c>
+      <c r="H12">
+        <v>0.09</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.103</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0.011915440134257</v>
+      </c>
+      <c r="G13">
+        <v>1.15</v>
+      </c>
+      <c r="H13">
+        <v>0.09</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.103</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0.012994764634903</v>
+      </c>
+      <c r="G14">
+        <v>1.15</v>
+      </c>
+      <c r="H14">
+        <v>0.09</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.103</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0.039038128591</v>
+      </c>
+      <c r="G15">
+        <v>1.15</v>
+      </c>
+      <c r="H15">
+        <v>0.09</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.103</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0.004576371868</v>
+      </c>
+      <c r="G16">
+        <v>1.15</v>
+      </c>
+      <c r="H16">
+        <v>0.09</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.103</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0.013226048345678</v>
+      </c>
+      <c r="G17">
+        <v>1.15</v>
+      </c>
+      <c r="H17">
+        <v>0.09</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.103</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3047,73 +4521,73 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3121,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3157,7 +4631,7 @@
         <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -3197,92 +4671,362 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.03862486465649</v>
+        <v>11.08158441669221</v>
       </c>
       <c r="C2">
-        <v>49.71765253055127</v>
+        <v>49.71751247658487</v>
       </c>
       <c r="D2">
-        <v>11.0386078500064</v>
+        <v>11.08142171079026</v>
       </c>
       <c r="E2">
-        <v>49.71754399368189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>49.71753195011623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.03819789817602</v>
+        <v>11.08157437922605</v>
       </c>
       <c r="C3">
-        <v>49.71768073833321</v>
+        <v>49.71747716222624</v>
       </c>
       <c r="D3">
-        <v>11.03818219999951</v>
+        <v>11.08175104872344</v>
       </c>
       <c r="E3">
-        <v>49.71758059365734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>49.71745601717397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.03862486465649</v>
+        <v>11.08099489216262</v>
       </c>
       <c r="C4">
-        <v>49.71765253055127</v>
+        <v>49.71724082955845</v>
       </c>
       <c r="D4">
-        <v>11.03819789817602</v>
+        <v>11.08077599998138</v>
       </c>
       <c r="E4">
-        <v>49.71768073833321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>49.71727369364591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03862486465649</v>
+        <v>11.08100527357939</v>
       </c>
       <c r="C5">
-        <v>49.71765253055127</v>
+        <v>49.71726993902242</v>
       </c>
       <c r="D5">
-        <v>11.03862486465649</v>
+        <v>11.08119026156357</v>
       </c>
       <c r="E5">
-        <v>49.71765253055127</v>
+        <v>49.71724216488616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11.08100527357939</v>
+      </c>
+      <c r="C6">
+        <v>49.71726993902242</v>
+      </c>
+      <c r="D6">
+        <v>11.08099489216262</v>
+      </c>
+      <c r="E6">
+        <v>49.71724082955845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11.08157437922605</v>
+      </c>
+      <c r="C7">
+        <v>49.71747716222624</v>
+      </c>
+      <c r="D7">
+        <v>11.08152029999999</v>
+      </c>
+      <c r="E7">
+        <v>49.71728689682657</v>
+      </c>
+      <c r="F7">
+        <v>11.0810564</v>
+      </c>
+      <c r="G7">
+        <v>49.71741329682658</v>
+      </c>
+      <c r="H7">
+        <v>11.08100527357939</v>
+      </c>
+      <c r="I7">
+        <v>49.71726993902242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>11.08158441669221</v>
+      </c>
+      <c r="C8">
+        <v>49.71751247658487</v>
+      </c>
+      <c r="D8">
+        <v>11.08157437922605</v>
+      </c>
+      <c r="E8">
+        <v>49.71747716222624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11.08158441669221</v>
+      </c>
+      <c r="C9">
+        <v>49.71751247658487</v>
+      </c>
+      <c r="D9">
+        <v>11.08158441669221</v>
+      </c>
+      <c r="E9">
+        <v>49.71751247658487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11.08106535648623</v>
+      </c>
+      <c r="C10">
+        <v>49.71746074806131</v>
+      </c>
+      <c r="D10">
+        <v>11.08085639052928</v>
+      </c>
+      <c r="E10">
+        <v>49.71746377134979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>11.08158941669221</v>
+      </c>
+      <c r="C11">
+        <v>49.71751247658487</v>
+      </c>
+      <c r="D11">
+        <v>11.08158941669221</v>
+      </c>
+      <c r="E11">
+        <v>49.71751747658487</v>
+      </c>
+      <c r="F11">
+        <v>11.08157937922605</v>
+      </c>
+      <c r="G11">
+        <v>49.71748216222624</v>
+      </c>
+      <c r="H11">
+        <v>11.08152529999999</v>
+      </c>
+      <c r="I11">
+        <v>49.71729189682657</v>
+      </c>
+      <c r="J11">
+        <v>11.0810614</v>
+      </c>
+      <c r="K11">
+        <v>49.71741829682658</v>
+      </c>
+      <c r="L11">
+        <v>11.08106535648623</v>
+      </c>
+      <c r="M11">
+        <v>49.71746074806131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11.08188908576607</v>
+      </c>
+      <c r="C12">
+        <v>49.71788262986878</v>
+      </c>
+      <c r="D12">
+        <v>11.08186073393895</v>
+      </c>
+      <c r="E12">
+        <v>49.71780686781077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11.08163916167314</v>
+      </c>
+      <c r="C13">
+        <v>49.71767990015087</v>
+      </c>
+      <c r="D13">
+        <v>11.08146669283051</v>
+      </c>
+      <c r="E13">
+        <v>49.71768934531271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11.08162765929453</v>
+      </c>
+      <c r="C14">
+        <v>49.7176394321288</v>
+      </c>
+      <c r="D14">
+        <v>11.08179484460015</v>
+      </c>
+      <c r="E14">
+        <v>49.71760822533752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11.08163916167314</v>
+      </c>
+      <c r="C15">
+        <v>49.71767990015087</v>
+      </c>
+      <c r="D15">
+        <v>11.08188908576607</v>
+      </c>
+      <c r="E15">
+        <v>49.71788262986878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>11.08162765929453</v>
+      </c>
+      <c r="C16">
+        <v>49.7176394321288</v>
+      </c>
+      <c r="D16">
+        <v>11.08163916167314</v>
+      </c>
+      <c r="E16">
+        <v>49.71767990015087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>11.08159441669221</v>
+      </c>
+      <c r="C17">
+        <v>49.71751247658487</v>
+      </c>
+      <c r="D17">
+        <v>11.08159441669221</v>
+      </c>
+      <c r="E17">
+        <v>49.71752247658488</v>
+      </c>
+      <c r="F17">
+        <v>11.08162765929453</v>
+      </c>
+      <c r="G17">
+        <v>49.7176394321288</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +5036,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3300,13 +5044,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3314,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.03862486465649</v>
+        <v>11.08158441669221</v>
       </c>
       <c r="C2">
-        <v>49.71765253055127</v>
+        <v>49.71751247658487</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3325,10 +5069,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.03862486465649</v>
+        <v>11.08158441669221</v>
       </c>
       <c r="C3">
-        <v>49.71780253055127</v>
+        <v>49.71766247658487</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3336,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.03862486465649</v>
+        <v>11.08158441669221</v>
       </c>
       <c r="C4">
-        <v>49.71765253055127</v>
+        <v>49.71751247658487</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3347,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03819789817602</v>
+        <v>11.08157437922605</v>
       </c>
       <c r="C5">
-        <v>49.71768073833321</v>
+        <v>49.71747716222624</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3358,10 +5102,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.0386078500064</v>
+        <v>11.08162765929453</v>
       </c>
       <c r="C6">
-        <v>49.71754399368189</v>
+        <v>49.7176394321288</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3369,10 +5113,142 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.03818219999951</v>
+        <v>11.08163916167314</v>
       </c>
       <c r="C7">
-        <v>49.71758059365734</v>
+        <v>49.71767990015087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>11.08188908576607</v>
+      </c>
+      <c r="C8">
+        <v>49.71788262986878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11.08106535648623</v>
+      </c>
+      <c r="C9">
+        <v>49.71746074806131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11.08100527357939</v>
+      </c>
+      <c r="C10">
+        <v>49.71726993902242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>11.08099489216262</v>
+      </c>
+      <c r="C11">
+        <v>49.71724082955845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11.08186073393895</v>
+      </c>
+      <c r="C12">
+        <v>49.71780686781077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11.08142171079026</v>
+      </c>
+      <c r="C13">
+        <v>49.71753195011623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11.08146669283051</v>
+      </c>
+      <c r="C14">
+        <v>49.71768934531271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11.08179484460015</v>
+      </c>
+      <c r="C15">
+        <v>49.71760822533752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>11.08085639052928</v>
+      </c>
+      <c r="C16">
+        <v>49.71746377134979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>11.08175104872344</v>
+      </c>
+      <c r="C17">
+        <v>49.71745601717397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11.08077599998138</v>
+      </c>
+      <c r="C18">
+        <v>49.71727369364591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>11.08119026156357</v>
+      </c>
+      <c r="C19">
+        <v>49.71724216488616</v>
       </c>
     </row>
   </sheetData>
@@ -3393,30 +5269,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>0.642</v>
@@ -3434,7 +5310,7 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I2">
         <v>0.00403</v>
@@ -3442,7 +5318,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>0.225</v>
@@ -3460,7 +5336,7 @@
         <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I3">
         <v>0.00403</v>
@@ -3468,7 +5344,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>0.208</v>
@@ -3486,7 +5362,7 @@
         <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I4">
         <v>0.00403</v>
@@ -3494,7 +5370,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>0.313</v>
@@ -3512,7 +5388,7 @@
         <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I5">
         <v>0.00403</v>
@@ -3520,7 +5396,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>0.161</v>
@@ -3538,7 +5414,7 @@
         <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I6">
         <v>0.00403</v>
@@ -3546,7 +5422,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>0.122</v>
@@ -3564,7 +5440,7 @@
         <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I7">
         <v>0.00403</v>
@@ -3572,7 +5448,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>0.313</v>
@@ -3590,7 +5466,7 @@
         <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I8">
         <v>0.00403</v>
@@ -3598,7 +5474,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>0.161</v>
@@ -3616,7 +5492,7 @@
         <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I9">
         <v>0.00403</v>
@@ -3624,7 +5500,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>0.122</v>
@@ -3642,7 +5518,7 @@
         <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I10">
         <v>0.00403</v>
@@ -3650,7 +5526,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>0.206</v>
@@ -3668,7 +5544,7 @@
         <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I11">
         <v>0.00403</v>
@@ -3676,7 +5552,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>0.253</v>
@@ -3694,7 +5570,7 @@
         <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I12">
         <v>0.00403</v>
@@ -3702,7 +5578,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>0.443</v>
@@ -3720,7 +5596,7 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I13">
         <v>0.00403</v>
@@ -3728,7 +5604,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>0.206</v>
@@ -3746,7 +5622,7 @@
         <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I14">
         <v>0.00403</v>
@@ -3754,7 +5630,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>0.253</v>
@@ -3772,7 +5648,7 @@
         <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I15">
         <v>0.00403</v>
@@ -3780,7 +5656,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>0.443</v>
@@ -3798,7 +5674,7 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I16">
         <v>0.00403</v>
@@ -3806,7 +5682,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>0.153</v>
@@ -3824,7 +5700,7 @@
         <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I17">
         <v>0.00393</v>
@@ -3832,7 +5708,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>0.099</v>
@@ -3850,7 +5726,7 @@
         <v>185</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I18">
         <v>0.00393</v>
@@ -3858,7 +5734,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>0.075</v>
@@ -3876,7 +5752,7 @@
         <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I19">
         <v>0.00393</v>
@@ -3884,7 +5760,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>0.06</v>
@@ -3902,7 +5778,7 @@
         <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="I20">
         <v>0.00393</v>
@@ -3910,7 +5786,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>1.8769</v>
@@ -3928,7 +5804,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I21">
         <v>0.00403</v>
@@ -3936,7 +5812,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C22">
         <v>1.2012</v>
@@ -3954,7 +5830,7 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I22">
         <v>0.00403</v>
@@ -3962,7 +5838,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>0.5939</v>
@@ -3980,7 +5856,7 @@
         <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I23">
         <v>0.00403</v>
@@ -3988,7 +5864,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C24">
         <v>0.306</v>
@@ -4006,7 +5882,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I24">
         <v>0.00403</v>
@@ -4014,7 +5890,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>0.8342000000000001</v>
@@ -4032,7 +5908,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I25">
         <v>0.00403</v>
@@ -4040,7 +5916,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>0.5939</v>
@@ -4058,7 +5934,7 @@
         <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I26">
         <v>0.00403</v>
@@ -4066,7 +5942,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C27">
         <v>0.4132</v>
@@ -4084,7 +5960,7 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I27">
         <v>0.00403</v>
@@ -4092,7 +5968,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>0.306</v>
@@ -4110,7 +5986,7 @@
         <v>94</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I28">
         <v>0.00403</v>
@@ -4118,7 +5994,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C29">
         <v>0.2376</v>
@@ -4136,7 +6012,7 @@
         <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I29">
         <v>0.00403</v>
@@ -4144,7 +6020,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C30">
         <v>0.194</v>
@@ -4162,7 +6038,7 @@
         <v>149</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I30">
         <v>0.00403</v>
@@ -4170,7 +6046,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C31">
         <v>0.8342000000000001</v>
@@ -4188,7 +6064,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I31">
         <v>0.00403</v>
@@ -4196,7 +6072,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C32">
         <v>0.5939</v>
@@ -4214,7 +6090,7 @@
         <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I32">
         <v>0.00403</v>
@@ -4222,7 +6098,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C33">
         <v>0.4132</v>
@@ -4240,7 +6116,7 @@
         <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I33">
         <v>0.00403</v>
@@ -4248,7 +6124,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C34">
         <v>0.306</v>
@@ -4266,7 +6142,7 @@
         <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I34">
         <v>0.00403</v>
@@ -4274,7 +6150,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C35">
         <v>0.2376</v>
@@ -4292,7 +6168,7 @@
         <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I35">
         <v>0.00403</v>
@@ -4300,7 +6176,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C36">
         <v>0.194</v>
@@ -4318,7 +6194,7 @@
         <v>149</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I36">
         <v>0.00403</v>
@@ -4326,7 +6202,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C37">
         <v>0.1571</v>
@@ -4344,7 +6220,7 @@
         <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I37">
         <v>0.00403</v>
@@ -4352,7 +6228,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C38">
         <v>0.1188</v>
@@ -4370,7 +6246,7 @@
         <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I38">
         <v>0.00403</v>
@@ -4378,7 +6254,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C39">
         <v>0.5939</v>
@@ -4396,7 +6272,7 @@
         <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I39">
         <v>0.00403</v>
@@ -4404,7 +6280,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C40">
         <v>0.4132</v>
@@ -4422,7 +6298,7 @@
         <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I40">
         <v>0.00403</v>
@@ -4430,7 +6306,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C41">
         <v>0.306</v>
@@ -4448,7 +6324,7 @@
         <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I41">
         <v>0.00403</v>
@@ -4456,7 +6332,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>0.2376</v>
@@ -4474,7 +6350,7 @@
         <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I42">
         <v>0.00403</v>
@@ -4482,7 +6358,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>0.194</v>
@@ -4500,7 +6376,7 @@
         <v>149</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I43">
         <v>0.00403</v>
@@ -4508,7 +6384,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>0.1571</v>
@@ -4526,7 +6402,7 @@
         <v>184</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I44">
         <v>0.00403</v>
@@ -4534,7 +6410,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>0.1188</v>
@@ -4552,7 +6428,7 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I45">
         <v>0.00403</v>
@@ -4560,7 +6436,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C46">
         <v>0.0949</v>
@@ -4578,7 +6454,7 @@
         <v>305</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I46">
         <v>0.00403</v>
@@ -4586,7 +6462,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C47">
         <v>0.059</v>
@@ -4604,7 +6480,7 @@
         <v>490</v>
       </c>
       <c r="H47" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I47">
         <v>0.00403</v>
@@ -4612,7 +6488,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C48">
         <v>0.042</v>
@@ -4630,7 +6506,7 @@
         <v>679</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I48">
         <v>0.00403</v>
@@ -4638,7 +6514,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C49">
         <v>0.059</v>
@@ -4656,7 +6532,7 @@
         <v>490</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I49">
         <v>0.00403</v>
@@ -4664,7 +6540,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C50">
         <v>0.042</v>
@@ -4682,7 +6558,7 @@
         <v>679</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I50">
         <v>0.00403</v>
@@ -4690,7 +6566,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C51">
         <v>0.059</v>
@@ -4708,7 +6584,7 @@
         <v>490</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I51">
         <v>0.00403</v>
@@ -4716,7 +6592,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C52">
         <v>0.042</v>
@@ -4734,7 +6610,7 @@
         <v>679</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I52">
         <v>0.00403</v>
@@ -4742,7 +6618,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>1.15</v>
@@ -4762,7 +6638,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C54">
         <v>0.524</v>
@@ -4782,7 +6658,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C55">
         <v>0.164</v>
@@ -4802,7 +6678,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C56">
         <v>0.32</v>
@@ -4822,7 +6698,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C57">
         <v>0.268</v>
@@ -4842,7 +6718,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C58">
         <v>0.193</v>
@@ -4878,54 +6754,54 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>160</v>
@@ -4952,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4975,7 +6851,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -5002,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -5025,7 +6901,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -5052,7 +6928,7 @@
         <v>150</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5075,7 +6951,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -5102,7 +6978,7 @@
         <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5125,7 +7001,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -5152,7 +7028,7 @@
         <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5175,7 +7051,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -5202,7 +7078,7 @@
         <v>150</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5225,7 +7101,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -5252,7 +7128,7 @@
         <v>150</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5275,7 +7151,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -5302,7 +7178,7 @@
         <v>150</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5325,7 +7201,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>0.25</v>
@@ -5352,7 +7228,7 @@
         <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5375,7 +7251,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="C11">
         <v>0.4</v>
@@ -5402,7 +7278,7 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5425,7 +7301,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C12">
         <v>0.63</v>
@@ -5452,7 +7328,7 @@
         <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5475,7 +7351,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -5502,7 +7378,7 @@
         <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5525,7 +7401,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -5552,7 +7428,7 @@
         <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -5575,7 +7451,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="C15">
         <v>0.63</v>
@@ -5602,7 +7478,7 @@
         <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="L15">
         <v>0</v>

--- a/gui/IDP_MapTool_Flask/pandapower2urbs/dataset/_transmission/test.xlsx
+++ b/gui/IDP_MapTool_Flask/pandapower2urbs/dataset/_transmission/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="217">
   <si>
     <t>name</t>
   </si>
@@ -54,52 +54,40 @@
     <t>Trafostation_OS</t>
   </si>
   <si>
-    <t>Connection Nodebus 29</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 41</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 36</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 34</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 24</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 38</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 46</t>
-  </si>
-  <si>
-    <t>Connection Nodebus 43</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 23</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 28</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 33</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 35</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 37</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 40</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 42</t>
-  </si>
-  <si>
-    <t>Consumer Nodebus 45</t>
+    <t>Connection Nodebus 20</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 2</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 13</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 5</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 18</t>
+  </si>
+  <si>
+    <t>Connection Nodebus 15</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 4</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 7</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 12</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 14</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 17</t>
+  </si>
+  <si>
+    <t>Consumer Nodebus 19</t>
   </si>
   <si>
     <t>n</t>
@@ -126,67 +114,52 @@
     <t>scaling</t>
   </si>
   <si>
-    <t>min_p_mw</t>
-  </si>
-  <si>
     <t>max_p_mw</t>
   </si>
   <si>
-    <t>min_q_mvar</t>
-  </si>
-  <si>
-    <t>max_q_mvar</t>
-  </si>
-  <si>
-    <t>controllable</t>
-  </si>
-  <si>
-    <t>Load 23 household 1</t>
-  </si>
-  <si>
-    <t>Load 23 household 2</t>
-  </si>
-  <si>
-    <t>Load 28 household 1</t>
-  </si>
-  <si>
-    <t>Load 33 household 1</t>
-  </si>
-  <si>
-    <t>Load 35 household 1</t>
-  </si>
-  <si>
-    <t>Load 35 household 2</t>
-  </si>
-  <si>
-    <t>Load 35 household 3</t>
-  </si>
-  <si>
-    <t>Load 35 household 4</t>
-  </si>
-  <si>
-    <t>Load 37 household 1</t>
-  </si>
-  <si>
-    <t>Load 37 household 2</t>
-  </si>
-  <si>
-    <t>Load 40 household 1</t>
-  </si>
-  <si>
-    <t>Load 40 household 2</t>
-  </si>
-  <si>
-    <t>Load 40 household 3</t>
-  </si>
-  <si>
-    <t>Load 40 household 4</t>
-  </si>
-  <si>
-    <t>Load 42 household 1</t>
-  </si>
-  <si>
-    <t>Load 45 household 1</t>
+    <t>Load 4 household 1</t>
+  </si>
+  <si>
+    <t>Load 7 household 1</t>
+  </si>
+  <si>
+    <t>Load 12 household 1</t>
+  </si>
+  <si>
+    <t>Load 14 household 1</t>
+  </si>
+  <si>
+    <t>Load 17 household 1</t>
+  </si>
+  <si>
+    <t>Load 19 household 1</t>
+  </si>
+  <si>
+    <t>Load 19 household 2</t>
+  </si>
+  <si>
+    <t>Load 19 household 3</t>
+  </si>
+  <si>
+    <t>Load 19 household 4</t>
+  </si>
+  <si>
+    <t>Load 19 household 5</t>
+  </si>
+  <si>
+    <t>Load 19 household 6</t>
+  </si>
+  <si>
+    <t>Load 19 household 7</t>
+  </si>
+  <si>
+    <t>Load 19 household 8</t>
+  </si>
+  <si>
+    <t>Load 19 household 9</t>
+  </si>
+  <si>
+    <t>Load 19 household 10</t>
   </si>
   <si>
     <t>wye</t>
@@ -201,24 +174,6 @@
     <t>slack_weight</t>
   </si>
   <si>
-    <t>s_sc_max_mva</t>
-  </si>
-  <si>
-    <t>s_sc_min_mva</t>
-  </si>
-  <si>
-    <t>rx_min</t>
-  </si>
-  <si>
-    <t>rx_max</t>
-  </si>
-  <si>
-    <t>x0x_max</t>
-  </si>
-  <si>
-    <t>r0x0_max</t>
-  </si>
-  <si>
     <t>External grid</t>
   </si>
   <si>
@@ -255,57 +210,48 @@
     <t>parallel</t>
   </si>
   <si>
-    <t>Line to 28</t>
-  </si>
-  <si>
-    <t>Line to 40</t>
-  </si>
-  <si>
-    <t>Line to 42</t>
-  </si>
-  <si>
-    <t>Line to 45</t>
-  </si>
-  <si>
-    <t>Line to 43</t>
-  </si>
-  <si>
-    <t>Line to 46</t>
-  </si>
-  <si>
-    <t>Line to 41</t>
-  </si>
-  <si>
-    <t>Line to 29</t>
-  </si>
-  <si>
-    <t>Line to 37</t>
-  </si>
-  <si>
-    <t>Line to 38</t>
-  </si>
-  <si>
-    <t>Line to 23</t>
-  </si>
-  <si>
-    <t>Line to 33</t>
-  </si>
-  <si>
-    <t>Line to 35</t>
-  </si>
-  <si>
-    <t>Line to 24</t>
-  </si>
-  <si>
-    <t>Line to 34</t>
-  </si>
-  <si>
-    <t>Line to 36</t>
+    <t>Line to 7</t>
+  </si>
+  <si>
+    <t>Line to 14</t>
+  </si>
+  <si>
+    <t>Line to 19</t>
+  </si>
+  <si>
+    <t>Line to 15</t>
+  </si>
+  <si>
+    <t>Line to 2</t>
+  </si>
+  <si>
+    <t>Line to 20</t>
+  </si>
+  <si>
+    <t>Line to 17</t>
+  </si>
+  <si>
+    <t>Line to 18</t>
+  </si>
+  <si>
+    <t>Line to 4</t>
+  </si>
+  <si>
+    <t>Line to 5</t>
+  </si>
+  <si>
+    <t>Line to 12</t>
+  </si>
+  <si>
+    <t>Line to 13</t>
   </si>
   <si>
     <t>NYY 4x16 SE</t>
   </si>
   <si>
+    <t>NYY 4x35 SE</t>
+  </si>
+  <si>
     <t>hv_bus</t>
   </si>
   <si>
@@ -357,9 +303,6 @@
     <t>tap_phase_shifter</t>
   </si>
   <si>
-    <t>max_loading_percent</t>
-  </si>
-  <si>
     <t>100 transformer</t>
   </si>
   <si>
@@ -399,12 +342,6 @@
     <t>y4</t>
   </si>
   <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>y5</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -573,9 +510,6 @@
     <t>679-AL1/86-ST1A 380.0</t>
   </si>
   <si>
-    <t>NYY 4x35 SE</t>
-  </si>
-  <si>
     <t>NAYY 4x185 SE</t>
   </si>
   <si>
@@ -738,10 +672,10 @@
     <t>f_hz</t>
   </si>
   <si>
-    <t>2.11.1</t>
-  </si>
-  <si>
-    <t>2.10.1.post1</t>
+    <t>2.13.1</t>
+  </si>
+  <si>
+    <t>2.12.0</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1139,7 +1073,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1162,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1185,7 +1119,7 @@
         <v>0.4</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1208,7 +1142,7 @@
         <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1231,7 +1165,7 @@
         <v>0.4</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1254,7 +1188,7 @@
         <v>0.4</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1277,7 +1211,7 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1300,7 +1234,7 @@
         <v>0.4</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1323,7 +1257,7 @@
         <v>0.4</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1346,7 +1280,7 @@
         <v>0.4</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1369,7 +1303,7 @@
         <v>0.4</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1392,7 +1326,7 @@
         <v>0.4</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1415,7 +1349,7 @@
         <v>0.4</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1438,7 +1372,7 @@
         <v>0.4</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1447,98 +1381,6 @@
         <v>0.95</v>
       </c>
       <c r="H15">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>0.4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.95</v>
-      </c>
-      <c r="H16">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>0.4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.95</v>
-      </c>
-      <c r="H17">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.95</v>
-      </c>
-      <c r="H18">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>0.4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.95</v>
-      </c>
-      <c r="H19">
         <v>1.05</v>
       </c>
     </row>
@@ -1557,75 +1399,75 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B2">
         <v>63</v>
@@ -1676,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1696,7 +1538,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -1747,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1772,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1780,13 +1622,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1794,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1808,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1822,13 +1664,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1836,13 +1678,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1850,13 +1692,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1864,13 +1706,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1878,13 +1720,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1892,13 +1734,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1906,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1920,13 +1762,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1934,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1948,13 +1790,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1962,13 +1804,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1976,13 +1818,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1990,13 +1832,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2004,13 +1846,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2018,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2032,13 +1874,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2046,13 +1888,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2060,13 +1902,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2074,13 +1916,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2088,13 +1930,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2102,13 +1944,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2116,13 +1958,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2130,13 +1972,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2144,13 +1986,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2158,13 +2000,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2172,13 +2014,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2186,13 +2028,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2200,13 +2042,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2214,13 +2056,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2228,13 +2070,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2242,13 +2084,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2256,13 +2098,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2270,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2284,13 +2126,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2298,13 +2140,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2312,13 +2154,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2326,13 +2168,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2340,13 +2182,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2354,13 +2196,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2368,13 +2210,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2382,13 +2224,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2396,13 +2238,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2410,13 +2252,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2424,13 +2266,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2438,13 +2280,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2452,13 +2294,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2466,13 +2308,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2480,13 +2322,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2494,13 +2336,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2508,13 +2350,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2522,13 +2364,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2536,13 +2378,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2550,13 +2392,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2564,13 +2406,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2578,13 +2420,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2592,13 +2434,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2606,13 +2448,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2620,13 +2462,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2634,13 +2476,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2648,13 +2490,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2662,13 +2504,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2676,13 +2518,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2690,237 +2532,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>225</v>
-      </c>
-      <c r="C79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2938,25 +2556,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2964,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -2989,36 +2607,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -3027,30 +2645,18 @@
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3071,24 +2677,21 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="L2">
         <v>0.03</v>
       </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3109,24 +2712,21 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3">
+        <v>45</v>
+      </c>
+      <c r="L3">
         <v>0.03</v>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3147,24 +2747,21 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="L4">
         <v>0.03</v>
       </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3185,24 +2782,21 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="L5">
         <v>0.03</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3223,21 +2817,18 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="L6">
         <v>0.03</v>
       </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -3261,21 +2852,18 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="L7">
         <v>0.03</v>
       </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3299,21 +2887,18 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8">
+        <v>45</v>
+      </c>
+      <c r="L8">
         <v>0.03</v>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3337,24 +2922,21 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="L9">
         <v>0.03</v>
       </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3375,24 +2957,21 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="L10">
         <v>0.03</v>
       </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3413,24 +2992,21 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="L11">
         <v>0.03</v>
       </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3451,24 +3027,21 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="L12">
         <v>0.03</v>
       </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3489,24 +3062,21 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="L13">
         <v>0.03</v>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3527,24 +3097,21 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="L14">
         <v>0.03</v>
       </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3565,24 +3132,21 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="L15">
         <v>0.03</v>
       </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3603,51 +3167,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16">
+        <v>45</v>
+      </c>
+      <c r="L16">
         <v>0.03</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17">
-        <v>0.03</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3657,71 +3180,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3736,9 +3226,6 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3749,7 +3236,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3760,37 +3247,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -3804,19 +3291,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0.011932863530525</v>
+        <v>0.012483348423768</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -3848,19 +3335,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>0.012956974654474</v>
+        <v>0.015059438521961</v>
       </c>
       <c r="G3">
         <v>1.15</v>
@@ -3892,19 +3379,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>0.016204443604671</v>
+        <v>0.023851254412127</v>
       </c>
       <c r="G4">
         <v>1.15</v>
@@ -3936,25 +3423,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0.013694547567895</v>
+        <v>0.084011065942695</v>
       </c>
       <c r="G5">
-        <v>1.15</v>
+        <v>0.524</v>
       </c>
       <c r="H5">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3963,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.103</v>
+        <v>0.159</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3980,25 +3467,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.003322827910104</v>
+        <v>0.018572579658859</v>
       </c>
       <c r="G6">
-        <v>1.15</v>
+        <v>0.524</v>
       </c>
       <c r="H6">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4007,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.103</v>
+        <v>0.159</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4024,25 +3511,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.074169598766908</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1.15</v>
+        <v>0.524</v>
       </c>
       <c r="H7">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4051,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.103</v>
+        <v>0.159</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4068,19 +3555,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>0.003993563378503</v>
+        <v>0.018596499546868</v>
       </c>
       <c r="G8">
         <v>1.15</v>
@@ -4112,19 +3599,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.080677853015885</v>
       </c>
       <c r="G9">
         <v>1.15</v>
@@ -4156,19 +3643,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>0.014737904823221</v>
+        <v>0.01415715983417</v>
       </c>
       <c r="G10">
         <v>1.15</v>
@@ -4200,19 +3687,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>0.066528552841084</v>
+        <v>0.048854336457286</v>
       </c>
       <c r="G11">
         <v>1.15</v>
@@ -4244,19 +3731,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>0.00743236507635</v>
+        <v>0.013954274111305</v>
       </c>
       <c r="G12">
         <v>1.15</v>
@@ -4288,19 +3775,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>0.011915440134257</v>
+        <v>0.036644757738734</v>
       </c>
       <c r="G13">
         <v>1.15</v>
@@ -4324,182 +3811,6 @@
         <v>1</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0.012994764634903</v>
-      </c>
-      <c r="G14">
-        <v>1.15</v>
-      </c>
-      <c r="H14">
-        <v>0.09</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0.103</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>0.039038128591</v>
-      </c>
-      <c r="G15">
-        <v>1.15</v>
-      </c>
-      <c r="H15">
-        <v>0.09</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0.103</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>0.004576371868</v>
-      </c>
-      <c r="G16">
-        <v>1.15</v>
-      </c>
-      <c r="H16">
-        <v>0.09</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0.103</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>0.013226048345678</v>
-      </c>
-      <c r="G17">
-        <v>1.15</v>
-      </c>
-      <c r="H17">
-        <v>0.09</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0.103</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="O17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4510,95 +3821,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4631,7 +3939,7 @@
         <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -4671,362 +3979,294 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.08158441669221</v>
+        <v>11.05943510000001</v>
       </c>
       <c r="C2">
-        <v>49.71751247658487</v>
+        <v>49.71294769682545</v>
       </c>
       <c r="D2">
-        <v>11.08142171079026</v>
+        <v>11.05935399998372</v>
       </c>
       <c r="E2">
-        <v>49.71753195011623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>49.71284854366554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08157437922605</v>
+        <v>11.05982783811709</v>
       </c>
       <c r="C3">
-        <v>49.71747716222624</v>
+        <v>49.7123676778798</v>
       </c>
       <c r="D3">
-        <v>11.08175104872344</v>
+        <v>11.05961941829573</v>
       </c>
       <c r="E3">
-        <v>49.71745601717397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>49.71237559119557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.08099489216262</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="C4">
-        <v>49.71724082955845</v>
+        <v>49.71303552331761</v>
       </c>
       <c r="D4">
-        <v>11.08077599998138</v>
+        <v>11.05904223856793</v>
       </c>
       <c r="E4">
-        <v>49.71727369364591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>49.71285310034163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.08100527357939</v>
+        <v>11.05943510000001</v>
       </c>
       <c r="C5">
-        <v>49.71726993902242</v>
+        <v>49.71294769682545</v>
       </c>
       <c r="D5">
-        <v>11.08119026156357</v>
+        <v>11.0598676</v>
       </c>
       <c r="E5">
-        <v>49.71724216488616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>49.71280979682537</v>
+      </c>
+      <c r="F5">
+        <v>11.05982783811709</v>
+      </c>
+      <c r="G5">
+        <v>49.7123676778798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.08100527357939</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="C6">
-        <v>49.71726993902242</v>
+        <v>49.71303552331761</v>
       </c>
       <c r="D6">
-        <v>11.08099489216262</v>
+        <v>11.05943510000001</v>
       </c>
       <c r="E6">
-        <v>49.71724082955845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>49.71294769682545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08157437922605</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="C7">
-        <v>49.71747716222624</v>
+        <v>49.71303552331761</v>
       </c>
       <c r="D7">
-        <v>11.08152029999999</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="E7">
-        <v>49.71728689682657</v>
-      </c>
-      <c r="F7">
-        <v>11.0810564</v>
-      </c>
-      <c r="G7">
-        <v>49.71741329682658</v>
-      </c>
-      <c r="H7">
-        <v>11.08100527357939</v>
-      </c>
-      <c r="I7">
-        <v>49.71726993902242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>49.71303552331761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.08158441669221</v>
+        <v>11.0598505231493</v>
       </c>
       <c r="C8">
-        <v>49.71751247658487</v>
+        <v>49.71256932174527</v>
       </c>
       <c r="D8">
-        <v>11.08157437922605</v>
+        <v>11.05958815001002</v>
       </c>
       <c r="E8">
-        <v>49.71747716222624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>49.71257409367376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.08158441669221</v>
+        <v>11.05922106987696</v>
       </c>
       <c r="C9">
-        <v>49.71751247658487</v>
+        <v>49.71303552331761</v>
       </c>
       <c r="D9">
-        <v>11.08158441669221</v>
+        <v>11.05922106987696</v>
       </c>
       <c r="E9">
-        <v>49.71751247658487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>49.71304052331761</v>
+      </c>
+      <c r="F9">
+        <v>11.05944010000001</v>
+      </c>
+      <c r="G9">
+        <v>49.71295269682545</v>
+      </c>
+      <c r="H9">
+        <v>11.0598726</v>
+      </c>
+      <c r="I9">
+        <v>49.71281479682537</v>
+      </c>
+      <c r="J9">
+        <v>11.0598505231493</v>
+      </c>
+      <c r="K9">
+        <v>49.71256932174527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.08106535648623</v>
+        <v>11.05875630427822</v>
       </c>
       <c r="C10">
-        <v>49.71746074806131</v>
+        <v>49.71305765614255</v>
       </c>
       <c r="D10">
-        <v>11.08085639052928</v>
+        <v>11.05892824998685</v>
       </c>
       <c r="E10">
-        <v>49.71746377134979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>49.71299989366882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.08158941669221</v>
+        <v>11.05922606987696</v>
       </c>
       <c r="C11">
-        <v>49.71751247658487</v>
+        <v>49.71303552331761</v>
       </c>
       <c r="D11">
-        <v>11.08158941669221</v>
+        <v>11.05922606987696</v>
       </c>
       <c r="E11">
-        <v>49.71751747658487</v>
+        <v>49.71304552331761</v>
       </c>
       <c r="F11">
-        <v>11.08157937922605</v>
+        <v>11.0588768</v>
       </c>
       <c r="G11">
-        <v>49.71748216222624</v>
+        <v>49.71320119682552</v>
       </c>
       <c r="H11">
-        <v>11.08152529999999</v>
+        <v>11.05875630427822</v>
       </c>
       <c r="I11">
-        <v>49.71729189682657</v>
-      </c>
-      <c r="J11">
-        <v>11.0810614</v>
-      </c>
-      <c r="K11">
-        <v>49.71741829682658</v>
-      </c>
-      <c r="L11">
-        <v>11.08106535648623</v>
-      </c>
-      <c r="M11">
-        <v>49.71746074806131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>49.71305765614255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.08188908576607</v>
+        <v>11.05967496423354</v>
       </c>
       <c r="C12">
-        <v>49.71788262986878</v>
+        <v>49.71289100053352</v>
       </c>
       <c r="D12">
-        <v>11.08186073393895</v>
+        <v>11.05957465000782</v>
       </c>
       <c r="E12">
-        <v>49.71780686781077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>49.71276339367193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.08163916167314</v>
+        <v>11.05923106987696</v>
       </c>
       <c r="C13">
-        <v>49.71767990015087</v>
+        <v>49.71303552331761</v>
       </c>
       <c r="D13">
-        <v>11.08146669283051</v>
+        <v>11.05923106987696</v>
       </c>
       <c r="E13">
-        <v>49.71768934531271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>11.08162765929453</v>
-      </c>
-      <c r="C14">
-        <v>49.7176394321288</v>
-      </c>
-      <c r="D14">
-        <v>11.08179484460015</v>
-      </c>
-      <c r="E14">
-        <v>49.71760822533752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>11.08163916167314</v>
-      </c>
-      <c r="C15">
-        <v>49.71767990015087</v>
-      </c>
-      <c r="D15">
-        <v>11.08188908576607</v>
-      </c>
-      <c r="E15">
-        <v>49.71788262986878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>11.08162765929453</v>
-      </c>
-      <c r="C16">
-        <v>49.7176394321288</v>
-      </c>
-      <c r="D16">
-        <v>11.08163916167314</v>
-      </c>
-      <c r="E16">
-        <v>49.71767990015087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>11.08159441669221</v>
-      </c>
-      <c r="C17">
-        <v>49.71751247658487</v>
-      </c>
-      <c r="D17">
-        <v>11.08159441669221</v>
-      </c>
-      <c r="E17">
-        <v>49.71752247658488</v>
-      </c>
-      <c r="F17">
-        <v>11.08162765929453</v>
-      </c>
-      <c r="G17">
-        <v>49.7176394321288</v>
+        <v>49.71305052331761</v>
+      </c>
+      <c r="F13">
+        <v>11.05945010000001</v>
+      </c>
+      <c r="G13">
+        <v>49.71296269682545</v>
+      </c>
+      <c r="H13">
+        <v>11.05967496423354</v>
+      </c>
+      <c r="I13">
+        <v>49.71289100053352</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +4276,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5044,13 +4284,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5058,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.08158441669221</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="C2">
-        <v>49.71751247658487</v>
+        <v>49.71303552331761</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5069,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08158441669221</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="C3">
-        <v>49.71766247658487</v>
+        <v>49.71318552331761</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5080,10 +4320,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.08158441669221</v>
+        <v>11.05921606987696</v>
       </c>
       <c r="C4">
-        <v>49.71751247658487</v>
+        <v>49.71303552331761</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5091,10 +4331,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.08157437922605</v>
+        <v>11.05943510000001</v>
       </c>
       <c r="C5">
-        <v>49.71747716222624</v>
+        <v>49.71294769682545</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5102,10 +4342,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.08162765929453</v>
+        <v>11.05967496423354</v>
       </c>
       <c r="C6">
-        <v>49.7176394321288</v>
+        <v>49.71289100053352</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5113,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08163916167314</v>
+        <v>11.05875630427822</v>
       </c>
       <c r="C7">
-        <v>49.71767990015087</v>
+        <v>49.71305765614255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5124,10 +4364,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.08188908576607</v>
+        <v>11.0598505231493</v>
       </c>
       <c r="C8">
-        <v>49.71788262986878</v>
+        <v>49.71256932174527</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5135,10 +4375,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.08106535648623</v>
+        <v>11.05982783811709</v>
       </c>
       <c r="C9">
-        <v>49.71746074806131</v>
+        <v>49.7123676778798</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5146,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.08100527357939</v>
+        <v>11.05892824998685</v>
       </c>
       <c r="C10">
-        <v>49.71726993902242</v>
+        <v>49.71299989366882</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5157,10 +4397,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.08099489216262</v>
+        <v>11.05935399998372</v>
       </c>
       <c r="C11">
-        <v>49.71724082955845</v>
+        <v>49.71284854366554</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5168,10 +4408,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.08186073393895</v>
+        <v>11.05957465000782</v>
       </c>
       <c r="C12">
-        <v>49.71780686781077</v>
+        <v>49.71276339367193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5179,10 +4419,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.08142171079026</v>
+        <v>11.05961941829573</v>
       </c>
       <c r="C13">
-        <v>49.71753195011623</v>
+        <v>49.71237559119557</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5190,10 +4430,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.08146669283051</v>
+        <v>11.05958815001002</v>
       </c>
       <c r="C14">
-        <v>49.71768934531271</v>
+        <v>49.71257409367376</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5201,54 +4441,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.08179484460015</v>
+        <v>11.05904223856793</v>
       </c>
       <c r="C15">
-        <v>49.71760822533752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>11.08085639052928</v>
-      </c>
-      <c r="C16">
-        <v>49.71746377134979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>11.08175104872344</v>
-      </c>
-      <c r="C17">
-        <v>49.71745601717397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>11.08077599998138</v>
-      </c>
-      <c r="C18">
-        <v>49.71727369364591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>11.08119026156357</v>
-      </c>
-      <c r="C19">
-        <v>49.71724216488616</v>
+        <v>49.71285310034163</v>
       </c>
     </row>
   </sheetData>
@@ -5269,30 +4465,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>0.642</v>
@@ -5310,7 +4506,7 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I2">
         <v>0.00403</v>
@@ -5318,7 +4514,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>0.225</v>
@@ -5336,7 +4532,7 @@
         <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>0.00403</v>
@@ -5344,7 +4540,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>0.208</v>
@@ -5362,7 +4558,7 @@
         <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I4">
         <v>0.00403</v>
@@ -5370,7 +4566,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>0.313</v>
@@ -5388,7 +4584,7 @@
         <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I5">
         <v>0.00403</v>
@@ -5396,7 +4592,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>0.161</v>
@@ -5414,7 +4610,7 @@
         <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I6">
         <v>0.00403</v>
@@ -5422,7 +4618,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>0.122</v>
@@ -5440,7 +4636,7 @@
         <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I7">
         <v>0.00403</v>
@@ -5448,7 +4644,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>0.313</v>
@@ -5466,7 +4662,7 @@
         <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I8">
         <v>0.00403</v>
@@ -5474,7 +4670,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>0.161</v>
@@ -5492,7 +4688,7 @@
         <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I9">
         <v>0.00403</v>
@@ -5500,7 +4696,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>0.122</v>
@@ -5518,7 +4714,7 @@
         <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I10">
         <v>0.00403</v>
@@ -5526,7 +4722,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>0.206</v>
@@ -5544,7 +4740,7 @@
         <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I11">
         <v>0.00403</v>
@@ -5552,7 +4748,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C12">
         <v>0.253</v>
@@ -5570,7 +4766,7 @@
         <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I12">
         <v>0.00403</v>
@@ -5578,7 +4774,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C13">
         <v>0.443</v>
@@ -5596,7 +4792,7 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I13">
         <v>0.00403</v>
@@ -5604,7 +4800,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>0.206</v>
@@ -5622,7 +4818,7 @@
         <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I14">
         <v>0.00403</v>
@@ -5630,7 +4826,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C15">
         <v>0.253</v>
@@ -5648,7 +4844,7 @@
         <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I15">
         <v>0.00403</v>
@@ -5656,7 +4852,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C16">
         <v>0.443</v>
@@ -5674,7 +4870,7 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I16">
         <v>0.00403</v>
@@ -5682,7 +4878,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>0.153</v>
@@ -5700,7 +4896,7 @@
         <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I17">
         <v>0.00393</v>
@@ -5708,7 +4904,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C18">
         <v>0.099</v>
@@ -5726,7 +4922,7 @@
         <v>185</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I18">
         <v>0.00393</v>
@@ -5734,7 +4930,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>0.075</v>
@@ -5752,7 +4948,7 @@
         <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I19">
         <v>0.00393</v>
@@ -5760,7 +4956,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>0.06</v>
@@ -5778,7 +4974,7 @@
         <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I20">
         <v>0.00393</v>
@@ -5786,7 +4982,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C21">
         <v>1.8769</v>
@@ -5804,7 +5000,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I21">
         <v>0.00403</v>
@@ -5812,7 +5008,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C22">
         <v>1.2012</v>
@@ -5830,7 +5026,7 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I22">
         <v>0.00403</v>
@@ -5838,7 +5034,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C23">
         <v>0.5939</v>
@@ -5856,7 +5052,7 @@
         <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I23">
         <v>0.00403</v>
@@ -5864,7 +5060,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>0.306</v>
@@ -5882,7 +5078,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I24">
         <v>0.00403</v>
@@ -5890,7 +5086,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C25">
         <v>0.8342000000000001</v>
@@ -5908,7 +5104,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I25">
         <v>0.00403</v>
@@ -5916,7 +5112,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C26">
         <v>0.5939</v>
@@ -5934,7 +5130,7 @@
         <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I26">
         <v>0.00403</v>
@@ -5942,7 +5138,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>0.4132</v>
@@ -5960,7 +5156,7 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I27">
         <v>0.00403</v>
@@ -5968,7 +5164,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C28">
         <v>0.306</v>
@@ -5986,7 +5182,7 @@
         <v>94</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I28">
         <v>0.00403</v>
@@ -5994,7 +5190,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C29">
         <v>0.2376</v>
@@ -6012,7 +5208,7 @@
         <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I29">
         <v>0.00403</v>
@@ -6020,7 +5216,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>0.194</v>
@@ -6038,7 +5234,7 @@
         <v>149</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I30">
         <v>0.00403</v>
@@ -6046,7 +5242,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C31">
         <v>0.8342000000000001</v>
@@ -6064,7 +5260,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I31">
         <v>0.00403</v>
@@ -6072,7 +5268,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C32">
         <v>0.5939</v>
@@ -6090,7 +5286,7 @@
         <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I32">
         <v>0.00403</v>
@@ -6098,7 +5294,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>0.4132</v>
@@ -6116,7 +5312,7 @@
         <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I33">
         <v>0.00403</v>
@@ -6124,7 +5320,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C34">
         <v>0.306</v>
@@ -6142,7 +5338,7 @@
         <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I34">
         <v>0.00403</v>
@@ -6150,7 +5346,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C35">
         <v>0.2376</v>
@@ -6168,7 +5364,7 @@
         <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I35">
         <v>0.00403</v>
@@ -6176,7 +5372,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C36">
         <v>0.194</v>
@@ -6194,7 +5390,7 @@
         <v>149</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I36">
         <v>0.00403</v>
@@ -6202,7 +5398,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C37">
         <v>0.1571</v>
@@ -6220,7 +5416,7 @@
         <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I37">
         <v>0.00403</v>
@@ -6228,7 +5424,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C38">
         <v>0.1188</v>
@@ -6246,7 +5442,7 @@
         <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I38">
         <v>0.00403</v>
@@ -6254,7 +5450,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C39">
         <v>0.5939</v>
@@ -6272,7 +5468,7 @@
         <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I39">
         <v>0.00403</v>
@@ -6280,7 +5476,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C40">
         <v>0.4132</v>
@@ -6298,7 +5494,7 @@
         <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I40">
         <v>0.00403</v>
@@ -6306,7 +5502,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C41">
         <v>0.306</v>
@@ -6324,7 +5520,7 @@
         <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I41">
         <v>0.00403</v>
@@ -6332,7 +5528,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>0.2376</v>
@@ -6350,7 +5546,7 @@
         <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I42">
         <v>0.00403</v>
@@ -6358,7 +5554,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C43">
         <v>0.194</v>
@@ -6376,7 +5572,7 @@
         <v>149</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I43">
         <v>0.00403</v>
@@ -6384,7 +5580,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C44">
         <v>0.1571</v>
@@ -6402,7 +5598,7 @@
         <v>184</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I44">
         <v>0.00403</v>
@@ -6410,7 +5606,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C45">
         <v>0.1188</v>
@@ -6428,7 +5624,7 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I45">
         <v>0.00403</v>
@@ -6436,7 +5632,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C46">
         <v>0.0949</v>
@@ -6454,7 +5650,7 @@
         <v>305</v>
       </c>
       <c r="H46" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I46">
         <v>0.00403</v>
@@ -6462,7 +5658,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C47">
         <v>0.059</v>
@@ -6480,7 +5676,7 @@
         <v>490</v>
       </c>
       <c r="H47" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I47">
         <v>0.00403</v>
@@ -6488,7 +5684,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C48">
         <v>0.042</v>
@@ -6506,7 +5702,7 @@
         <v>679</v>
       </c>
       <c r="H48" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I48">
         <v>0.00403</v>
@@ -6514,7 +5710,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C49">
         <v>0.059</v>
@@ -6532,7 +5728,7 @@
         <v>490</v>
       </c>
       <c r="H49" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I49">
         <v>0.00403</v>
@@ -6540,7 +5736,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C50">
         <v>0.042</v>
@@ -6558,7 +5754,7 @@
         <v>679</v>
       </c>
       <c r="H50" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I50">
         <v>0.00403</v>
@@ -6566,7 +5762,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C51">
         <v>0.059</v>
@@ -6584,7 +5780,7 @@
         <v>490</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I51">
         <v>0.00403</v>
@@ -6592,7 +5788,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C52">
         <v>0.042</v>
@@ -6610,7 +5806,7 @@
         <v>679</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I52">
         <v>0.00403</v>
@@ -6618,7 +5814,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C53">
         <v>1.15</v>
@@ -6638,7 +5834,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="C54">
         <v>0.524</v>
@@ -6658,7 +5854,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C55">
         <v>0.164</v>
@@ -6678,7 +5874,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C56">
         <v>0.32</v>
@@ -6698,7 +5894,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C57">
         <v>0.268</v>
@@ -6718,7 +5914,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C58">
         <v>0.193</v>
@@ -6754,54 +5950,54 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C2">
         <v>160</v>
@@ -6828,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -6851,7 +6047,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -6878,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -6901,7 +6097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -6928,7 +6124,7 @@
         <v>150</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -6951,7 +6147,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -6978,7 +6174,7 @@
         <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -7001,7 +6197,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -7028,7 +6224,7 @@
         <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7051,7 +6247,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -7078,7 +6274,7 @@
         <v>150</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -7101,7 +6297,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -7128,7 +6324,7 @@
         <v>150</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -7151,7 +6347,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -7178,7 +6374,7 @@
         <v>150</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -7201,7 +6397,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0.25</v>
@@ -7228,7 +6424,7 @@
         <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -7251,7 +6447,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>0.4</v>
@@ -7278,7 +6474,7 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -7301,7 +6497,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>0.63</v>
@@ -7328,7 +6524,7 @@
         <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -7351,7 +6547,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -7378,7 +6574,7 @@
         <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -7401,7 +6597,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -7428,7 +6624,7 @@
         <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -7451,7 +6647,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C15">
         <v>0.63</v>
@@ -7478,7 +6674,7 @@
         <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L15">
         <v>0</v>
